--- a/raw_data/20200818_saline/20200818_Sensor0_Test_74.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_74.xlsx
@@ -1,930 +1,1346 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C2342-6E4C-413E-89D9-1C80C12C1F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>65702.909212</v>
+        <v>65702.909211999999</v>
       </c>
       <c r="B2" s="1">
-        <v>18.250808</v>
+        <v>18.250807999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>899.433000</v>
+        <v>899.43299999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.807000</v>
+        <v>-196.80699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>65713.623812</v>
+        <v>65713.623812000005</v>
       </c>
       <c r="G2" s="1">
         <v>18.253784</v>
       </c>
       <c r="H2" s="1">
-        <v>916.857000</v>
+        <v>916.85699999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.342000</v>
+        <v>-167.34200000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>65724.075974</v>
+        <v>65724.075974000007</v>
       </c>
       <c r="L2" s="1">
         <v>18.256688</v>
       </c>
       <c r="M2" s="1">
-        <v>939.898000</v>
+        <v>939.89800000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.106000</v>
+        <v>-120.10599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>65734.186462</v>
+        <v>65734.186461999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.259496</v>
+        <v>18.259495999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>946.728000</v>
+        <v>946.72799999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.611000</v>
+        <v>-104.611</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>65744.737819</v>
+        <v>65744.737819000002</v>
       </c>
       <c r="V2" s="1">
-        <v>18.262427</v>
+        <v>18.262426999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>953.400000</v>
+        <v>953.4</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.688000</v>
+        <v>-90.688000000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>65755.186078</v>
+        <v>65755.186077999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>18.265329</v>
+        <v>18.265329000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.774000</v>
+        <v>960.774</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.824400</v>
+        <v>-80.824399999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>65766.068272</v>
+        <v>65766.068272000004</v>
       </c>
       <c r="AF2" s="1">
         <v>18.268352</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.786000</v>
+        <v>965.78599999999994</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.162200</v>
+        <v>-80.162199999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>65776.215425</v>
+        <v>65776.215425000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>18.271171</v>
+        <v>18.271170999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>973.699000</v>
+        <v>973.69899999999996</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.779000</v>
+        <v>-87.778999999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>65786.200390</v>
+        <v>65786.200389999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.273945</v>
+        <v>18.273945000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>982.839000</v>
+        <v>982.83900000000006</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.546000</v>
+        <v>-102.54600000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>65797.009704</v>
+        <v>65797.009703999996</v>
       </c>
       <c r="AU2" s="1">
         <v>18.276947</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.192000</v>
+        <v>994.19200000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.038000</v>
+        <v>-124.038</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>65807.726296</v>
+        <v>65807.726295999993</v>
       </c>
       <c r="AZ2" s="1">
-        <v>18.279924</v>
+        <v>18.279924000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.810000</v>
+        <v>1003.81</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.744000</v>
+        <v>-142.744</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>65817.987004</v>
+        <v>65817.987003999995</v>
       </c>
       <c r="BE2" s="1">
         <v>18.282774</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.533000</v>
+        <v>-227.53299999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>65828.601885</v>
+        <v>65828.601884999996</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.285723</v>
+        <v>18.285723000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1129.650000</v>
+        <v>1129.6500000000001</v>
       </c>
       <c r="BL2" s="1">
-        <v>-362.890000</v>
+        <v>-362.89</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>65839.649775</v>
+        <v>65839.649774999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.288792</v>
+        <v>18.288792000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1262.280000</v>
+        <v>1262.28</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-570.447000</v>
+        <v>-570.447</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>65850.095520</v>
+        <v>65850.095520000003</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.291693</v>
+        <v>18.291692999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1410.270000</v>
+        <v>1410.27</v>
       </c>
       <c r="BV2" s="1">
-        <v>-790.548000</v>
+        <v>-790.548</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>65860.798194</v>
+        <v>65860.798194000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.294666</v>
+        <v>18.294665999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1571.610000</v>
+        <v>1571.61</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1020.360000</v>
+        <v>-1020.36</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>65872.154627</v>
+        <v>65872.154626999996</v>
       </c>
       <c r="CD2" s="1">
-        <v>18.297821</v>
+        <v>18.297820999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1976.380000</v>
+        <v>1976.38</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1554.160000</v>
+        <v>-1554.16</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>65703.633859</v>
+        <v>65703.633858999994</v>
       </c>
       <c r="B3" s="1">
         <v>18.251009</v>
       </c>
       <c r="C3" s="1">
-        <v>899.410000</v>
+        <v>899.41</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.775000</v>
+        <v>-196.77500000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>65713.975444</v>
+        <v>65713.975443999996</v>
       </c>
       <c r="G3" s="1">
-        <v>18.253882</v>
+        <v>18.253882000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>917.142000</v>
+        <v>917.14200000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.360000</v>
+        <v>-167.36</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>65724.415239</v>
+        <v>65724.415238999994</v>
       </c>
       <c r="L3" s="1">
-        <v>18.256782</v>
+        <v>18.256782000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>939.859000</v>
+        <v>939.85900000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.046000</v>
+        <v>-120.04600000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>65734.548010</v>
+        <v>65734.548009999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.259597</v>
+        <v>18.259596999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.766000</v>
+        <v>946.76599999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.591000</v>
+        <v>-104.59099999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>65745.109324</v>
+        <v>65745.109324000005</v>
       </c>
       <c r="V3" s="1">
-        <v>18.262530</v>
+        <v>18.262530000000002</v>
       </c>
       <c r="W3" s="1">
-        <v>953.458000</v>
+        <v>953.45799999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.710400</v>
+        <v>-90.710400000000007</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>65755.875982</v>
+        <v>65755.875981999998</v>
       </c>
       <c r="AA3" s="1">
         <v>18.265521</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.739000</v>
+        <v>960.73900000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.853700</v>
+        <v>-80.853700000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>65766.178880</v>
+        <v>65766.178880000007</v>
       </c>
       <c r="AF3" s="1">
         <v>18.268383</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.878000</v>
+        <v>965.87800000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.148700</v>
+        <v>-80.148700000000005</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>65776.632065</v>
+        <v>65776.632064999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>18.271287</v>
+        <v>18.271287000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>973.723000</v>
+        <v>973.72299999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.722900</v>
+        <v>-87.722899999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>65786.562004</v>
+        <v>65786.562004000007</v>
       </c>
       <c r="AP3" s="1">
-        <v>18.274045</v>
+        <v>18.274045000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>982.843000</v>
+        <v>982.84299999999996</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.536000</v>
+        <v>-102.536</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>65797.334086</v>
+        <v>65797.334086000003</v>
       </c>
       <c r="AU3" s="1">
         <v>18.277037</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.182000</v>
+        <v>994.18200000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.010000</v>
+        <v>-124.01</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>65808.107689</v>
+        <v>65808.107688999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.280030</v>
+        <v>18.28003</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.753000</v>
+        <v>-142.75299999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>65818.417536</v>
+        <v>65818.417535999994</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.282894</v>
+        <v>18.282893999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.310000</v>
+        <v>1049.31</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.528000</v>
+        <v>-227.52799999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>65829.035884</v>
+        <v>65829.035883999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>18.285843</v>
       </c>
       <c r="BK3" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-362.920000</v>
+        <v>-362.92</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>65839.759886</v>
@@ -933,694 +1349,694 @@
         <v>18.288822</v>
       </c>
       <c r="BP3" s="1">
-        <v>1262.270000</v>
+        <v>1262.27</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-570.469000</v>
+        <v>-570.46900000000005</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>65850.549855</v>
+        <v>65850.549855000005</v>
       </c>
       <c r="BT3" s="1">
         <v>18.291819</v>
       </c>
       <c r="BU3" s="1">
-        <v>1410.220000</v>
+        <v>1410.22</v>
       </c>
       <c r="BV3" s="1">
-        <v>-790.577000</v>
+        <v>-790.577</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>65861.286753</v>
+        <v>65861.286752999993</v>
       </c>
       <c r="BY3" s="1">
-        <v>18.294802</v>
+        <v>18.294802000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1571.680000</v>
+        <v>1571.68</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1020.320000</v>
+        <v>-1020.32</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>65872.749795</v>
+        <v>65872.749794999996</v>
       </c>
       <c r="CD3" s="1">
-        <v>18.297986</v>
+        <v>18.297986000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1974.710000</v>
+        <v>1974.71</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1555.250000</v>
+        <v>-1555.25</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>65703.976593</v>
+        <v>65703.976592999999</v>
       </c>
       <c r="B4" s="1">
-        <v>18.251105</v>
+        <v>18.251104999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>899.416000</v>
+        <v>899.41600000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.778000</v>
+        <v>-196.77799999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>65714.316691</v>
       </c>
       <c r="G4" s="1">
-        <v>18.253977</v>
+        <v>18.253976999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>917.558000</v>
+        <v>917.55799999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.067000</v>
+        <v>-167.06700000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>65724.757130</v>
+        <v>65724.757129999998</v>
       </c>
       <c r="L4" s="1">
-        <v>18.256877</v>
+        <v>18.256876999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>939.742000</v>
+        <v>939.74199999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.944000</v>
+        <v>-119.944</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>65735.211160</v>
+        <v>65735.211160000006</v>
       </c>
       <c r="Q4" s="1">
         <v>18.259781</v>
       </c>
       <c r="R4" s="1">
-        <v>946.728000</v>
+        <v>946.72799999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.655000</v>
+        <v>-104.655</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>65745.753130</v>
+        <v>65745.753129999997</v>
       </c>
       <c r="V4" s="1">
-        <v>18.262709</v>
+        <v>18.262709000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>953.421000</v>
+        <v>953.42100000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.732600</v>
+        <v>-90.732600000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>65756.256448</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.265627</v>
+        <v>18.265626999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.852000</v>
+        <v>960.85199999999998</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.879700</v>
+        <v>-80.8797</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>65766.512688</v>
+        <v>65766.512688000003</v>
       </c>
       <c r="AF4" s="1">
         <v>18.268476</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.822000</v>
+        <v>965.822</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.220500</v>
+        <v>-80.220500000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>65776.977282</v>
+        <v>65776.977282000007</v>
       </c>
       <c r="AK4" s="1">
         <v>18.271383</v>
       </c>
       <c r="AL4" s="1">
-        <v>973.694000</v>
+        <v>973.69399999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.746600</v>
+        <v>-87.746600000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>65786.926035</v>
+        <v>65786.926034999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>18.274146</v>
+        <v>18.274146000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>982.859000</v>
+        <v>982.85900000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.547000</v>
+        <v>-102.547</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>65797.755227</v>
+        <v>65797.755227000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>18.277154</v>
+        <v>18.277153999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.189000</v>
+        <v>994.18899999999996</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.023000</v>
+        <v>-124.023</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>65808.530279</v>
+        <v>65808.530278999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.280147</v>
+        <v>18.280146999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.769000</v>
+        <v>-142.76900000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>65818.721082</v>
+        <v>65818.721082000004</v>
       </c>
       <c r="BE4" s="1">
         <v>18.282978</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.545000</v>
+        <v>-227.54499999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>65829.374651</v>
+        <v>65829.374651000006</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.285937</v>
+        <v>18.285937000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-362.926000</v>
+        <v>-362.92599999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>65840.187933</v>
+        <v>65840.187932999994</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.288941</v>
+        <v>18.288941000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1262.230000</v>
+        <v>1262.23</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-570.534000</v>
+        <v>-570.53399999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>65850.962034</v>
+        <v>65850.962033999996</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.291934</v>
+        <v>18.291934000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1410.170000</v>
+        <v>1410.17</v>
       </c>
       <c r="BV4" s="1">
-        <v>-790.568000</v>
+        <v>-790.56799999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>65861.733649</v>
+        <v>65861.733649000002</v>
       </c>
       <c r="BY4" s="1">
         <v>18.294926</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1571.740000</v>
+        <v>1571.74</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1020.330000</v>
+        <v>-1020.33</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>65873.287497</v>
+        <v>65873.287496999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>18.298135</v>
+        <v>18.298134999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1976.680000</v>
+        <v>1976.68</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1555.480000</v>
+        <v>-1555.48</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>65704.317350</v>
+        <v>65704.317349999998</v>
       </c>
       <c r="B5" s="1">
         <v>18.251199</v>
       </c>
       <c r="C5" s="1">
-        <v>899.375000</v>
+        <v>899.375</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.863000</v>
+        <v>-196.863</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>65714.975411</v>
+        <v>65714.975411000007</v>
       </c>
       <c r="G5" s="1">
-        <v>18.254160</v>
+        <v>18.254159999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>916.904000</v>
+        <v>916.904</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.780000</v>
+        <v>-166.78</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>65725.421125</v>
+        <v>65725.421124999993</v>
       </c>
       <c r="L5" s="1">
         <v>18.257061</v>
       </c>
       <c r="M5" s="1">
-        <v>939.912000</v>
+        <v>939.91200000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.057000</v>
+        <v>-120.057</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>65735.593080</v>
+        <v>65735.593080000006</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.259887</v>
+        <v>18.259886999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>946.708000</v>
+        <v>946.70799999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.640000</v>
+        <v>-104.64</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>65746.138522</v>
+        <v>65746.138521999994</v>
       </c>
       <c r="V5" s="1">
-        <v>18.262816</v>
+        <v>18.262816000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>953.324000</v>
+        <v>953.32399999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.605000</v>
+        <v>-90.605000000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>65756.606092</v>
+        <v>65756.606092000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.265724</v>
+        <v>18.265723999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.820000</v>
+        <v>960.82</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.806000</v>
+        <v>-80.805999999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>65766.855918</v>
+        <v>65766.855918000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>18.268571</v>
+        <v>18.268571000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.840000</v>
+        <v>965.84</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.335600</v>
+        <v>-80.335599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>65777.328977</v>
+        <v>65777.328976999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>18.271480</v>
+        <v>18.27148</v>
       </c>
       <c r="AL5" s="1">
-        <v>973.692000</v>
+        <v>973.69200000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.744400</v>
+        <v>-87.744399999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>65787.352099</v>
+        <v>65787.352098999996</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.274264</v>
+        <v>18.274263999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>982.846000</v>
+        <v>982.846</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.546000</v>
+        <v>-102.54600000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>65798.064229</v>
+        <v>65798.064228999996</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.277240</v>
+        <v>18.277239999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.210000</v>
+        <v>994.21</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.035000</v>
+        <v>-124.035</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>65808.824407</v>
+        <v>65808.824406999993</v>
       </c>
       <c r="AZ5" s="1">
-        <v>18.280229</v>
+        <v>18.280228999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.745000</v>
+        <v>-142.745</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>65819.081675</v>
+        <v>65819.081674999994</v>
       </c>
       <c r="BE5" s="1">
         <v>18.283078</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.535000</v>
+        <v>-227.535</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>65829.748668</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.286041</v>
+        <v>18.286041000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1129.650000</v>
+        <v>1129.6500000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-362.937000</v>
+        <v>-362.93700000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>65840.585261</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.289051</v>
+        <v>18.289051000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1262.260000</v>
+        <v>1262.26</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-570.476000</v>
+        <v>-570.476</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>65851.395038</v>
+        <v>65851.395038000002</v>
       </c>
       <c r="BT5" s="1">
         <v>18.292054</v>
       </c>
       <c r="BU5" s="1">
-        <v>1410.130000</v>
+        <v>1410.13</v>
       </c>
       <c r="BV5" s="1">
-        <v>-790.541000</v>
+        <v>-790.54100000000005</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>65862.154268</v>
+        <v>65862.154267999998</v>
       </c>
       <c r="BY5" s="1">
         <v>18.295043</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1571.350000</v>
+        <v>1571.35</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1020.350000</v>
+        <v>-1020.35</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>65873.831074</v>
+        <v>65873.831074000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.298286</v>
+        <v>18.298286000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1975.260000</v>
+        <v>1975.26</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1554.410000</v>
+        <v>-1554.41</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>65704.970577</v>
       </c>
       <c r="B6" s="1">
-        <v>18.251381</v>
+        <v>18.251380999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>899.246000</v>
+        <v>899.24599999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.833000</v>
+        <v>-196.833</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>65715.351346</v>
+        <v>65715.351345999996</v>
       </c>
       <c r="G6" s="1">
-        <v>18.254264</v>
+        <v>18.254263999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>917.179000</v>
+        <v>917.17899999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.183000</v>
+        <v>-167.18299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>65725.796629</v>
+        <v>65725.796629000004</v>
       </c>
       <c r="L6" s="1">
-        <v>18.257166</v>
+        <v>18.257166000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>939.928000</v>
+        <v>939.928</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.102000</v>
+        <v>-120.102</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>65735.942264</v>
+        <v>65735.942263999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>18.259984</v>
+        <v>18.259983999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>946.684000</v>
+        <v>946.68399999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.634000</v>
+        <v>-104.634</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>65746.484731</v>
+        <v>65746.484731000004</v>
       </c>
       <c r="V6" s="1">
         <v>18.262912</v>
       </c>
       <c r="W6" s="1">
-        <v>953.434000</v>
+        <v>953.43399999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.724400</v>
+        <v>-90.724400000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>65756.954283</v>
+        <v>65756.954282999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.265821</v>
+        <v>18.265820999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.806000</v>
+        <v>960.80600000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.852900</v>
+        <v>-80.852900000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>65767.274045</v>
+        <v>65767.274044999998</v>
       </c>
       <c r="AF6" s="1">
         <v>18.268687</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.842000</v>
+        <v>965.84199999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.227200</v>
+        <v>-80.227199999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>65777.757029</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.271599</v>
+        <v>18.271598999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>973.702000</v>
+        <v>973.702</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.755200</v>
+        <v>-87.755200000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>65787.642259</v>
@@ -1629,1949 +2045,1949 @@
         <v>18.274345</v>
       </c>
       <c r="AQ6" s="1">
-        <v>982.839000</v>
+        <v>982.83900000000006</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.548000</v>
+        <v>-102.548</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>65798.428758</v>
+        <v>65798.428757999995</v>
       </c>
       <c r="AU6" s="1">
         <v>18.277341</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.178000</v>
+        <v>994.178</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.045000</v>
+        <v>-124.045</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>65809.184999</v>
+        <v>65809.184999000005</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.280329</v>
+        <v>18.280328999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.810000</v>
+        <v>1003.81</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.744000</v>
+        <v>-142.744</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>65819.444250</v>
+        <v>65819.44425</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.283179</v>
+        <v>18.283179000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.544000</v>
+        <v>-227.54400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>65830.132068</v>
+        <v>65830.132068000006</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.286148</v>
+        <v>18.286148000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-362.960000</v>
+        <v>-362.96</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>65841.007324</v>
+        <v>65841.007324000006</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.289169</v>
+        <v>18.289169000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1262.250000</v>
+        <v>1262.25</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-570.517000</v>
+        <v>-570.51700000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>65851.819647</v>
+        <v>65851.819646999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.292172</v>
+        <v>18.292172000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1410.130000</v>
+        <v>1410.13</v>
       </c>
       <c r="BV6" s="1">
-        <v>-790.547000</v>
+        <v>-790.54700000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>65862.576353</v>
+        <v>65862.576352999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>18.295160</v>
+        <v>18.295159999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1571.450000</v>
+        <v>1571.45</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1020.350000</v>
+        <v>-1020.35</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>65874.366256</v>
+        <v>65874.366255999994</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.298435</v>
+        <v>18.298435000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1975.370000</v>
+        <v>1975.37</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1556.300000</v>
+        <v>-1556.3</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>65705.346097</v>
+        <v>65705.346097000001</v>
       </c>
       <c r="B7" s="1">
-        <v>18.251485</v>
+        <v>18.251484999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>899.325000</v>
+        <v>899.32500000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.892000</v>
+        <v>-196.892</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>65715.696065</v>
+        <v>65715.696064999996</v>
       </c>
       <c r="G7" s="1">
-        <v>18.254360</v>
+        <v>18.254359999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>916.654000</v>
+        <v>916.654</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.990000</v>
+        <v>-166.99</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>65726.141846</v>
+        <v>65726.141845999999</v>
       </c>
       <c r="L7" s="1">
-        <v>18.257262</v>
+        <v>18.257262000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>940.032000</v>
+        <v>940.03200000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.955000</v>
+        <v>-119.955</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>65736.288967</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.260080</v>
+        <v>18.260079999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>946.720000</v>
+        <v>946.72</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.576000</v>
+        <v>-104.57599999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>65746.908841</v>
+        <v>65746.908840999997</v>
       </c>
       <c r="V7" s="1">
-        <v>18.263030</v>
+        <v>18.263030000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>953.361000</v>
+        <v>953.36099999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.702100</v>
+        <v>-90.702100000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>65757.373899</v>
+        <v>65757.373898999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.265937</v>
+        <v>18.265937000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.746000</v>
+        <v>960.74599999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.770400</v>
+        <v>-80.770399999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>65767.569934</v>
+        <v>65767.569933999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.268769</v>
+        <v>18.268768999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.781000</v>
+        <v>965.78099999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.192000</v>
+        <v>-80.191999999999993</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>65778.028336</v>
+        <v>65778.028336000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>18.271675</v>
+        <v>18.271674999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>973.702000</v>
+        <v>973.702</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.738300</v>
+        <v>-87.738299999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>65788.004338</v>
+        <v>65788.004337999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.274446</v>
+        <v>18.274446000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>982.868000</v>
+        <v>982.86800000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.552000</v>
+        <v>-102.55200000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>65798.793317</v>
+        <v>65798.793317000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>18.277443</v>
+        <v>18.277443000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.199000</v>
+        <v>994.19899999999996</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.023000</v>
+        <v>-124.023</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>65809.543142</v>
+        <v>65809.543141999995</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.280429</v>
+        <v>18.280429000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.800000</v>
+        <v>1003.8</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.750000</v>
+        <v>-142.75</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>65820.165432</v>
+        <v>65820.165431999994</v>
       </c>
       <c r="BE7" s="1">
         <v>18.283379</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.340000</v>
+        <v>1049.3399999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.543000</v>
+        <v>-227.54300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>65830.907290</v>
+        <v>65830.907290000003</v>
       </c>
       <c r="BJ7" s="1">
-        <v>18.286363</v>
+        <v>18.286363000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-362.919000</v>
+        <v>-362.91899999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>65841.403133</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.289279</v>
+        <v>18.289279000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1262.250000</v>
+        <v>1262.25</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-570.488000</v>
+        <v>-570.48800000000006</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>65852.232287</v>
+        <v>65852.232287000006</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.292287</v>
+        <v>18.292287000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1410.110000</v>
+        <v>1410.11</v>
       </c>
       <c r="BV7" s="1">
-        <v>-790.602000</v>
+        <v>-790.60199999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>65863.002415</v>
+        <v>65863.002414999995</v>
       </c>
       <c r="BY7" s="1">
         <v>18.295278</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1571.640000</v>
+        <v>1571.64</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1020.260000</v>
+        <v>-1020.26</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>65875.212432</v>
       </c>
       <c r="CD7" s="1">
-        <v>18.298670</v>
+        <v>18.298670000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1974.960000</v>
+        <v>1974.96</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1554.300000</v>
+        <v>-1554.3</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>65705.688815</v>
+        <v>65705.688815000001</v>
       </c>
       <c r="B8" s="1">
-        <v>18.251580</v>
+        <v>18.251580000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>899.268000</v>
+        <v>899.26800000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.630000</v>
+        <v>-196.63</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>65716.046243</v>
+        <v>65716.046243000004</v>
       </c>
       <c r="G8" s="1">
-        <v>18.254457</v>
+        <v>18.254456999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>916.719000</v>
+        <v>916.71900000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.939000</v>
+        <v>-166.93899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>65726.489507</v>
+        <v>65726.489507000006</v>
       </c>
       <c r="L8" s="1">
         <v>18.257358</v>
       </c>
       <c r="M8" s="1">
-        <v>939.761000</v>
+        <v>939.76099999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.096000</v>
+        <v>-120.096</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>65736.710071</v>
+        <v>65736.710070999994</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.260197</v>
+        <v>18.260197000000002</v>
       </c>
       <c r="R8" s="1">
-        <v>946.740000</v>
+        <v>946.74</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.576000</v>
+        <v>-104.57599999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>65747.188444</v>
+        <v>65747.188443999999</v>
       </c>
       <c r="V8" s="1">
-        <v>18.263108</v>
+        <v>18.263107999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>953.433000</v>
+        <v>953.43299999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.588000</v>
+        <v>-90.587999999999994</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>65757.660619</v>
+        <v>65757.660619000002</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.266017</v>
+        <v>18.266017000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.828000</v>
+        <v>960.82799999999997</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.892700</v>
+        <v>-80.892700000000005</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>65767.913885</v>
+        <v>65767.913885000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.268865</v>
+        <v>18.268865000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.870000</v>
+        <v>965.87</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.193900</v>
+        <v>-80.193899999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>65778.376506</v>
+        <v>65778.376506000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.271771</v>
+        <v>18.271771000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>973.737000</v>
+        <v>973.73699999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.728700</v>
+        <v>-87.728700000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>65788.365426</v>
+        <v>65788.365426000004</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.274546</v>
+        <v>18.274546000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>982.855000</v>
+        <v>982.85500000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.533000</v>
+        <v>-102.533</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>65799.527395</v>
+        <v>65799.527394999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.277646</v>
+        <v>18.277646000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.199000</v>
+        <v>994.19899999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.008000</v>
+        <v>-124.008</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>65810.267270</v>
+        <v>65810.267269999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.280630</v>
+        <v>18.280629999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.810000</v>
+        <v>1003.81</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.737000</v>
+        <v>-142.73699999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>65820.529495</v>
+        <v>65820.529494999995</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.283480</v>
+        <v>18.283480000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.541000</v>
+        <v>-227.541</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>65831.270894</v>
+        <v>65831.270894000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.286464</v>
+        <v>18.286463999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-362.935000</v>
+        <v>-362.935</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>65841.821260</v>
+        <v>65841.821259999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.289395</v>
+        <v>18.289394999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1262.240000</v>
+        <v>1262.24</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-570.530000</v>
+        <v>-570.53</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>65852.975294</v>
+        <v>65852.975294000003</v>
       </c>
       <c r="BT8" s="1">
         <v>18.292493</v>
       </c>
       <c r="BU8" s="1">
-        <v>1410.090000</v>
+        <v>1410.09</v>
       </c>
       <c r="BV8" s="1">
-        <v>-790.598000</v>
+        <v>-790.59799999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>65863.726574</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.295480</v>
+        <v>18.295480000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1571.520000</v>
+        <v>1571.52</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1020.180000</v>
+        <v>-1020.18</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>65875.446544</v>
+        <v>65875.446544000006</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.298735</v>
+        <v>18.298735000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1974.960000</v>
+        <v>1974.96</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1554.580000</v>
+        <v>-1554.58</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>65706.031518</v>
+        <v>65706.031518000003</v>
       </c>
       <c r="B9" s="1">
-        <v>18.251675</v>
+        <v>18.251674999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>899.410000</v>
+        <v>899.41</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.707000</v>
+        <v>-196.70699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>65716.470817</v>
+        <v>65716.470816999994</v>
       </c>
       <c r="G9" s="1">
-        <v>18.254575</v>
+        <v>18.254574999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>916.960000</v>
+        <v>916.96</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.211000</v>
+        <v>-167.21100000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>65726.909619</v>
+        <v>65726.909618999998</v>
       </c>
       <c r="L9" s="1">
-        <v>18.257475</v>
+        <v>18.257474999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>939.923000</v>
+        <v>939.923</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.887000</v>
+        <v>-119.887</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>65736.990309</v>
+        <v>65736.990309000001</v>
       </c>
       <c r="Q9" s="1">
         <v>18.260275</v>
       </c>
       <c r="R9" s="1">
-        <v>946.764000</v>
+        <v>946.76400000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.625000</v>
+        <v>-104.625</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>65747.532808</v>
+        <v>65747.532808000004</v>
       </c>
       <c r="V9" s="1">
-        <v>18.263204</v>
+        <v>18.263204000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>953.508000</v>
+        <v>953.50800000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.737200</v>
+        <v>-90.737200000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>65758.008778</v>
+        <v>65758.008778000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>18.266114</v>
+        <v>18.266114000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.826000</v>
+        <v>960.82600000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.776000</v>
+        <v>-80.775999999999996</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>65768.257614</v>
+        <v>65768.257614000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>18.268960</v>
+        <v>18.26896</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.719000</v>
+        <v>965.71900000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.206600</v>
+        <v>-80.206599999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>65778.726670</v>
+        <v>65778.726670000004</v>
       </c>
       <c r="AK9" s="1">
-        <v>18.271869</v>
+        <v>18.271868999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>973.716000</v>
+        <v>973.71600000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.731800</v>
+        <v>-87.731800000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>65789.089586</v>
+        <v>65789.089586000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.274747</v>
+        <v>18.274747000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>982.830000</v>
+        <v>982.83</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.532000</v>
+        <v>-102.532</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>65799.908820</v>
+        <v>65799.908819999997</v>
       </c>
       <c r="AU9" s="1">
         <v>18.277752</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.173000</v>
+        <v>994.173</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.029000</v>
+        <v>-124.029</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>65810.642742</v>
+        <v>65810.642741999996</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.280734</v>
+        <v>18.280733999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.800000</v>
+        <v>1003.8</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.748000</v>
+        <v>-142.74799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>65820.890088</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.283581</v>
+        <v>18.283581000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.310000</v>
+        <v>1049.31</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.537000</v>
+        <v>-227.53700000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>65831.953385</v>
+        <v>65831.953385000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.286654</v>
+        <v>18.286653999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-362.921000</v>
+        <v>-362.92099999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>65842.523628</v>
+        <v>65842.523627999995</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.289590</v>
+        <v>18.28959</v>
       </c>
       <c r="BP9" s="1">
-        <v>1262.210000</v>
+        <v>1262.21</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-570.543000</v>
+        <v>-570.54300000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>65853.086428</v>
+        <v>65853.086427999995</v>
       </c>
       <c r="BT9" s="1">
         <v>18.292524</v>
       </c>
       <c r="BU9" s="1">
-        <v>1410.080000</v>
+        <v>1410.08</v>
       </c>
       <c r="BV9" s="1">
-        <v>-790.642000</v>
+        <v>-790.64200000000005</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>65863.866943</v>
+        <v>65863.866943000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>18.295519</v>
+        <v>18.295518999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1571.420000</v>
+        <v>1571.42</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1020.170000</v>
+        <v>-1020.17</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>65875.967869</v>
       </c>
       <c r="CD9" s="1">
-        <v>18.298880</v>
+        <v>18.29888</v>
       </c>
       <c r="CE9" s="1">
-        <v>1975.330000</v>
+        <v>1975.33</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1555.990000</v>
+        <v>-1555.99</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>65706.451167</v>
+        <v>65706.451167000007</v>
       </c>
       <c r="B10" s="1">
-        <v>18.251792</v>
+        <v>18.251791999999998</v>
       </c>
       <c r="C10" s="1">
-        <v>899.489000</v>
+        <v>899.48900000000003</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.684000</v>
+        <v>-196.684</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>65716.744112</v>
       </c>
       <c r="G10" s="1">
-        <v>18.254651</v>
+        <v>18.254650999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.186000</v>
+        <v>917.18600000000004</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.272000</v>
+        <v>-167.27199999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>65727.183412</v>
+        <v>65727.183411999998</v>
       </c>
       <c r="L10" s="1">
-        <v>18.257551</v>
+        <v>18.257550999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>939.926000</v>
+        <v>939.92600000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.075000</v>
+        <v>-120.075</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>65737.343461</v>
+        <v>65737.343460999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.260373</v>
+        <v>18.260373000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>946.724000</v>
+        <v>946.72400000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.658000</v>
+        <v>-104.658</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>65747.875544</v>
+        <v>65747.875543999995</v>
       </c>
       <c r="V10" s="1">
         <v>18.263299</v>
       </c>
       <c r="W10" s="1">
-        <v>953.452000</v>
+        <v>953.452</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.684500</v>
+        <v>-90.6845</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>65758.359977</v>
       </c>
       <c r="AA10" s="1">
-        <v>18.266211</v>
+        <v>18.266210999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.787000</v>
+        <v>960.78700000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.785700</v>
+        <v>-80.785700000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>65768.944075</v>
+        <v>65768.944075000007</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.269151</v>
+        <v>18.269151000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.718000</v>
+        <v>965.71799999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.146000</v>
+        <v>-80.146000000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>65779.422591</v>
+        <v>65779.422590999995</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.272062</v>
+        <v>18.272061999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>973.699000</v>
+        <v>973.69899999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.719700</v>
+        <v>-87.719700000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>65789.467574</v>
+        <v>65789.467573999995</v>
       </c>
       <c r="AP10" s="1">
-        <v>18.274852</v>
+        <v>18.274851999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>982.852000</v>
+        <v>982.85199999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.535000</v>
+        <v>-102.535</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>65800.272894</v>
+        <v>65800.272893999994</v>
       </c>
       <c r="AU10" s="1">
-        <v>18.277854</v>
+        <v>18.277854000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.186000</v>
+        <v>994.18600000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.035000</v>
+        <v>-124.035</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>65811.022213</v>
+        <v>65811.022213000004</v>
       </c>
       <c r="AZ10" s="1">
-        <v>18.280840</v>
+        <v>18.280840000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.810000</v>
+        <v>1003.81</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.745000</v>
+        <v>-142.745</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>65821.564151</v>
+        <v>65821.564150999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.283768</v>
+        <v>18.283767999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.300000</v>
+        <v>1049.3</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.540000</v>
+        <v>-227.54</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>65832.064952</v>
+        <v>65832.064952000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.286685</v>
+        <v>18.286684999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1129.610000</v>
+        <v>1129.6099999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-362.948000</v>
+        <v>-362.94799999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>65842.657055</v>
+        <v>65842.657055000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.289627</v>
+        <v>18.289626999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1262.310000</v>
+        <v>1262.31</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-570.522000</v>
+        <v>-570.52200000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>65853.528333</v>
+        <v>65853.528332999995</v>
       </c>
       <c r="BT10" s="1">
-        <v>18.292647</v>
+        <v>18.292646999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1409.950000</v>
+        <v>1409.95</v>
       </c>
       <c r="BV10" s="1">
-        <v>-790.621000</v>
+        <v>-790.62099999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>65864.287054</v>
       </c>
       <c r="BY10" s="1">
-        <v>18.295635</v>
+        <v>18.295635000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1571.610000</v>
+        <v>1571.61</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1020.390000</v>
+        <v>-1020.39</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>65876.485663</v>
+        <v>65876.485662999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.299024</v>
+        <v>18.299023999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1976.390000</v>
+        <v>1976.39</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1555.570000</v>
+        <v>-1555.57</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>65706.727901</v>
+        <v>65706.727901000006</v>
       </c>
       <c r="B11" s="1">
-        <v>18.251869</v>
+        <v>18.251868999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>899.292000</v>
+        <v>899.29200000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.892000</v>
+        <v>-196.892</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>65717.091137</v>
+        <v>65717.091136999996</v>
       </c>
       <c r="G11" s="1">
-        <v>18.254748</v>
+        <v>18.254747999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>916.791000</v>
+        <v>916.79100000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.990000</v>
+        <v>-166.99</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>65727.530612</v>
+        <v>65727.530612000002</v>
       </c>
       <c r="L11" s="1">
-        <v>18.257647</v>
+        <v>18.257646999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>939.847000</v>
+        <v>939.84699999999998</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.109000</v>
+        <v>-120.10899999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>65737.689345</v>
+        <v>65737.689345000006</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.260469</v>
+        <v>18.260469000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>946.682000</v>
+        <v>946.68200000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.635000</v>
+        <v>-104.63500000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>65748.563958</v>
+        <v>65748.563957999999</v>
       </c>
       <c r="V11" s="1">
-        <v>18.263490</v>
+        <v>18.263490000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>953.374000</v>
+        <v>953.37400000000002</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.659700</v>
+        <v>-90.659700000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>65759.058841</v>
+        <v>65759.058841000005</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.266405</v>
+        <v>18.266404999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.753000</v>
+        <v>960.75300000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.854800</v>
+        <v>-80.854799999999997</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>65769.290283</v>
+        <v>65769.290282999995</v>
       </c>
       <c r="AF11" s="1">
         <v>18.269247</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.836000</v>
+        <v>965.83600000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.199000</v>
+        <v>-80.198999999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>65779.795054</v>
+        <v>65779.795054000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>18.272165</v>
+        <v>18.272165000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>973.691000</v>
+        <v>973.69100000000003</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.730300</v>
+        <v>-87.7303</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>65789.857393</v>
+        <v>65789.857392999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>18.274960</v>
+        <v>18.27496</v>
       </c>
       <c r="AQ11" s="1">
-        <v>982.853000</v>
+        <v>982.85299999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.543000</v>
+        <v>-102.54300000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>65800.945457</v>
+        <v>65800.945456999994</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.278040</v>
+        <v>18.278040000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.232000</v>
+        <v>994.23199999999997</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.017000</v>
+        <v>-124.017</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>65811.696275</v>
+        <v>65811.696274999995</v>
       </c>
       <c r="AZ11" s="1">
-        <v>18.281027</v>
+        <v>18.281027000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.850000</v>
+        <v>1003.85</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.757000</v>
+        <v>-142.75700000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>65822.000134</v>
+        <v>65822.000134000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.283889</v>
+        <v>18.283888999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.538000</v>
+        <v>-227.53800000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>65832.422567</v>
+        <v>65832.422567000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.286784</v>
+        <v>18.286784000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1129.660000</v>
+        <v>1129.6600000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-362.912000</v>
+        <v>-362.91199999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>65843.066218</v>
+        <v>65843.066218000007</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.289741</v>
+        <v>18.289740999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1262.230000</v>
+        <v>1262.23</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-570.536000</v>
+        <v>-570.53599999999994</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>65853.942027</v>
+        <v>65853.942026999997</v>
       </c>
       <c r="BT11" s="1">
         <v>18.292762</v>
       </c>
       <c r="BU11" s="1">
-        <v>1410.030000</v>
+        <v>1410.03</v>
       </c>
       <c r="BV11" s="1">
-        <v>-790.697000</v>
+        <v>-790.697</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>65864.767181</v>
+        <v>65864.767181000003</v>
       </c>
       <c r="BY11" s="1">
         <v>18.295769</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1571.340000</v>
+        <v>1571.34</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1020.150000</v>
+        <v>-1020.15</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>65877.003981</v>
+        <v>65877.003981000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.299168</v>
+        <v>18.299168000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>1975.700000</v>
+        <v>1975.7</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1554.220000</v>
+        <v>-1554.22</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>65707.075346</v>
+        <v>65707.075345999998</v>
       </c>
       <c r="B12" s="1">
-        <v>18.251965</v>
+        <v>18.251964999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>899.286000</v>
+        <v>899.28599999999994</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.914000</v>
+        <v>-196.91399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>65717.438047</v>
+        <v>65717.438047000003</v>
       </c>
       <c r="G12" s="1">
-        <v>18.254844</v>
+        <v>18.254843999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>916.578000</v>
+        <v>916.57799999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.694000</v>
+        <v>-166.69399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>65727.875367</v>
+        <v>65727.875367000001</v>
       </c>
       <c r="L12" s="1">
-        <v>18.257743</v>
+        <v>18.257743000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>939.850000</v>
+        <v>939.85</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.950000</v>
+        <v>-119.95</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>65738.386581</v>
+        <v>65738.386580999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.260663</v>
+        <v>18.260663000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>946.715000</v>
+        <v>946.71500000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.565000</v>
+        <v>-104.565</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>65748.907687</v>
+        <v>65748.907686999999</v>
       </c>
       <c r="V12" s="1">
-        <v>18.263585</v>
+        <v>18.263584999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>953.359000</v>
+        <v>953.35900000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.664000</v>
+        <v>-90.664000000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>65759.406008</v>
+        <v>65759.406008000005</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.266502</v>
+        <v>18.266501999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.797000</v>
+        <v>960.79700000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.779800</v>
+        <v>-80.779799999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>65769.631539</v>
+        <v>65769.631538999995</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.269342</v>
+        <v>18.269342000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.818000</v>
+        <v>965.81799999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.963000</v>
+        <v>-79.962999999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>65780.132333</v>
+        <v>65780.132333000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.272259</v>
+        <v>18.272258999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>973.700000</v>
+        <v>973.7</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.751600</v>
+        <v>-87.751599999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>65790.540415</v>
+        <v>65790.540414999996</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.275150</v>
+        <v>18.27515</v>
       </c>
       <c r="AQ12" s="1">
-        <v>982.871000</v>
+        <v>982.87099999999998</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.538000</v>
+        <v>-102.538</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>65801.400289</v>
+        <v>65801.400288999997</v>
       </c>
       <c r="AU12" s="1">
         <v>18.278167</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.208000</v>
+        <v>994.20799999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.017000</v>
+        <v>-124.017</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>65812.102994</v>
+        <v>65812.102994000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.281140</v>
+        <v>18.281140000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.728000</v>
+        <v>-142.72800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>65822.362214</v>
+        <v>65822.362213999993</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.283990</v>
+        <v>18.283989999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.536000</v>
+        <v>-227.536</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>65832.798567</v>
+        <v>65832.798567000005</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.286888</v>
+        <v>18.286888000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-362.937000</v>
+        <v>-362.93700000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>65843.462038</v>
+        <v>65843.462037999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.289851</v>
+        <v>18.289850999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1262.250000</v>
+        <v>1262.25</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-570.528000</v>
+        <v>-570.52800000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>65854.370571</v>
+        <v>65854.370571000007</v>
       </c>
       <c r="BT12" s="1">
-        <v>18.292881</v>
+        <v>18.292881000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1409.950000</v>
+        <v>1409.95</v>
       </c>
       <c r="BV12" s="1">
-        <v>-790.640000</v>
+        <v>-790.64</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>65865.579164</v>
+        <v>65865.579163999995</v>
       </c>
       <c r="BY12" s="1">
         <v>18.295994</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1571.470000</v>
+        <v>1571.47</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1020.370000</v>
+        <v>-1020.37</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>65877.521307</v>
+        <v>65877.521307000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>18.299311</v>
+        <v>18.299310999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1976.360000</v>
+        <v>1976.36</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1554.320000</v>
+        <v>-1554.32</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>65707.413405</v>
+        <v>65707.413404999999</v>
       </c>
       <c r="B13" s="1">
-        <v>18.252059</v>
+        <v>18.252058999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>899.372000</v>
+        <v>899.37199999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.934000</v>
+        <v>-196.934</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>65718.131422</v>
+        <v>65718.131422000006</v>
       </c>
       <c r="G13" s="1">
-        <v>18.255037</v>
+        <v>18.255037000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>916.621000</v>
+        <v>916.62099999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.002000</v>
+        <v>-167.00200000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>65728.569766</v>
+        <v>65728.569766000001</v>
       </c>
       <c r="L13" s="1">
-        <v>18.257936</v>
+        <v>18.257936000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>939.938000</v>
+        <v>939.93799999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.001000</v>
+        <v>-120.001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>65738.734771</v>
+        <v>65738.734771000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.260760</v>
+        <v>18.260760000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>946.740000</v>
+        <v>946.74</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.614000</v>
+        <v>-104.614</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>65749.250422</v>
+        <v>65749.250421999997</v>
       </c>
       <c r="V13" s="1">
-        <v>18.263681</v>
+        <v>18.263680999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>953.512000</v>
+        <v>953.51199999999994</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.701200</v>
+        <v>-90.7012</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>65759.753221</v>
+        <v>65759.753221000006</v>
       </c>
       <c r="AA13" s="1">
-        <v>18.266598</v>
+        <v>18.266597999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.834000</v>
+        <v>960.83399999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.896700</v>
+        <v>-80.896699999999996</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>65770.289263</v>
+        <v>65770.289262999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>18.269525</v>
+        <v>18.269525000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.758000</v>
+        <v>965.75800000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.217800</v>
+        <v>-80.217799999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>65780.578237</v>
+        <v>65780.578236999994</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.272383</v>
+        <v>18.272383000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>973.725000</v>
+        <v>973.72500000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.726500</v>
+        <v>-87.726500000000001</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>65790.937183</v>
+        <v>65790.937183000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.275260</v>
+        <v>18.275259999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>982.858000</v>
+        <v>982.85799999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.522000</v>
+        <v>-102.52200000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>65801.766948</v>
+        <v>65801.766948000004</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.278269</v>
+        <v>18.278269000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.208000</v>
+        <v>994.20799999999997</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.016000</v>
+        <v>-124.01600000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>65812.480418</v>
+        <v>65812.480418000006</v>
       </c>
       <c r="AZ13" s="1">
-        <v>18.281245</v>
+        <v>18.281244999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.737000</v>
+        <v>-142.73699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>65822.723797</v>
+        <v>65822.723796999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>18.284090</v>
+        <v>18.284089999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.526000</v>
+        <v>-227.52600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>65833.220630</v>
+        <v>65833.220629999996</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.287006</v>
+        <v>18.287006000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1129.650000</v>
+        <v>1129.6500000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-362.913000</v>
+        <v>-362.91300000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>65843.884648</v>
+        <v>65843.884648000007</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.289968</v>
+        <v>18.289967999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1262.310000</v>
+        <v>1262.31</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-570.567000</v>
+        <v>-570.56700000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>65854.798587</v>
+        <v>65854.798586999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.293000</v>
+        <v>18.292999999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1409.940000</v>
+        <v>1409.94</v>
       </c>
       <c r="BV13" s="1">
-        <v>-790.745000</v>
+        <v>-790.745</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>65866.022059</v>
+        <v>65866.022058999995</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.296117</v>
+        <v>18.296116999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1571.610000</v>
+        <v>1571.61</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1020.300000</v>
+        <v>-1020.3</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>65878.074843</v>
+        <v>65878.074842999995</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.299465</v>
+        <v>18.299465000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1976.610000</v>
+        <v>1976.61</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1555.390000</v>
+        <v>-1555.39</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>65708.095869</v>
+        <v>65708.095868999997</v>
       </c>
       <c r="B14" s="1">
-        <v>18.252249</v>
+        <v>18.252248999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>899.404000</v>
+        <v>899.404</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.062000</v>
+        <v>-197.06200000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>65718.476142</v>
@@ -3580,88 +3996,88 @@
         <v>18.255132</v>
       </c>
       <c r="H14" s="1">
-        <v>917.040000</v>
+        <v>917.04</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.037000</v>
+        <v>-167.03700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>65728.914449</v>
+        <v>65728.914449000004</v>
       </c>
       <c r="L14" s="1">
         <v>18.258032</v>
       </c>
       <c r="M14" s="1">
-        <v>939.919000</v>
+        <v>939.91899999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.917000</v>
+        <v>-119.917</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>65739.086402</v>
+        <v>65739.086402000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.260857</v>
+        <v>18.260857000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>946.782000</v>
+        <v>946.78200000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.587000</v>
+        <v>-104.587</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>65749.902165</v>
+        <v>65749.902165000007</v>
       </c>
       <c r="V14" s="1">
         <v>18.263862</v>
       </c>
       <c r="W14" s="1">
-        <v>953.324000</v>
+        <v>953.32399999999996</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.618000</v>
+        <v>-90.617999999999995</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>65760.419336</v>
+        <v>65760.419336000006</v>
       </c>
       <c r="AA14" s="1">
         <v>18.266783</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.873000</v>
+        <v>960.87300000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.841500</v>
+        <v>-80.841499999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>65770.661225</v>
+        <v>65770.661225000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>18.269628</v>
+        <v>18.269628000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.581000</v>
+        <v>965.58100000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.097800</v>
+        <v>-80.097800000000007</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>65780.835454</v>
@@ -3670,1797 +4086,1797 @@
         <v>18.272454</v>
       </c>
       <c r="AL14" s="1">
-        <v>973.707000</v>
+        <v>973.70699999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.739500</v>
+        <v>-87.739500000000007</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>65791.319630</v>
+        <v>65791.319629999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>18.275367</v>
+        <v>18.275366999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>982.864000</v>
+        <v>982.86400000000003</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.551000</v>
+        <v>-102.551</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>65802.129407</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.278369</v>
+        <v>18.278369000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.188000</v>
+        <v>994.18799999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.009000</v>
+        <v>-124.009</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>65812.860887</v>
+        <v>65812.860887000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>18.281350</v>
+        <v>18.28135</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.767000</v>
+        <v>-142.767</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>65823.140973</v>
+        <v>65823.140973000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>18.284206</v>
+        <v>18.284206000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.310000</v>
+        <v>1049.31</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.531000</v>
+        <v>-227.53100000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>65833.548486</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.287097</v>
+        <v>18.287096999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1129.650000</v>
+        <v>1129.6500000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-362.932000</v>
+        <v>-362.93200000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>65844.282416</v>
+        <v>65844.282416000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.290078</v>
+        <v>18.290078000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1262.230000</v>
+        <v>1262.23</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-570.502000</v>
+        <v>-570.50199999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>65855.210267</v>
+        <v>65855.210267000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.293114</v>
+        <v>18.293113999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1409.880000</v>
+        <v>1409.88</v>
       </c>
       <c r="BV14" s="1">
-        <v>-790.776000</v>
+        <v>-790.77599999999995</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>65866.446171</v>
+        <v>65866.446171000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>18.296235</v>
+        <v>18.296234999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1571.580000</v>
+        <v>1571.58</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1020.370000</v>
+        <v>-1020.37</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>65878.602092</v>
+        <v>65878.602092000001</v>
       </c>
       <c r="CD14" s="1">
         <v>18.299612</v>
       </c>
       <c r="CE14" s="1">
-        <v>1975.860000</v>
+        <v>1975.86</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1554.410000</v>
+        <v>-1554.41</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>65708.439132</v>
       </c>
       <c r="B15" s="1">
-        <v>18.252344</v>
+        <v>18.252344000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>899.392000</v>
+        <v>899.39200000000005</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.905000</v>
+        <v>-196.905</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>65718.821389</v>
+        <v>65718.821389000004</v>
       </c>
       <c r="G15" s="1">
-        <v>18.255228</v>
+        <v>18.255227999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>916.197000</v>
+        <v>916.197</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.272000</v>
+        <v>-167.27199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>65729.258176</v>
+        <v>65729.258176000003</v>
       </c>
       <c r="L15" s="1">
-        <v>18.258127</v>
+        <v>18.258127000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>939.845000</v>
+        <v>939.84500000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.098000</v>
+        <v>-120.098</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>65739.741659</v>
+        <v>65739.741659000007</v>
       </c>
       <c r="Q15" s="1">
         <v>18.261039</v>
       </c>
       <c r="R15" s="1">
-        <v>946.770000</v>
+        <v>946.77</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.640000</v>
+        <v>-104.64</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>65750.280612</v>
+        <v>65750.280612000002</v>
       </c>
       <c r="V15" s="1">
-        <v>18.263967</v>
+        <v>18.263967000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.339000</v>
+        <v>953.33900000000006</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.621100</v>
+        <v>-90.621099999999998</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>65760.799766</v>
+        <v>65760.799765999996</v>
       </c>
       <c r="AA15" s="1">
-        <v>18.266889</v>
+        <v>18.266888999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.790000</v>
+        <v>960.79</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.840500</v>
+        <v>-80.840500000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>65771.005450</v>
+        <v>65771.005449999997</v>
       </c>
       <c r="AF15" s="1">
         <v>18.269724</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.007000</v>
+        <v>966.00699999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.162500</v>
+        <v>-80.162499999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>65781.179387</v>
+        <v>65781.179386999996</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.272550</v>
+        <v>18.272549999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>973.713000</v>
+        <v>973.71299999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.742000</v>
+        <v>-87.742000000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>65791.681709</v>
+        <v>65791.681708999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>18.275467</v>
+        <v>18.275466999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>982.836000</v>
+        <v>982.83600000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.540000</v>
+        <v>-102.54</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>65802.550511</v>
+        <v>65802.550510999994</v>
       </c>
       <c r="AU15" s="1">
-        <v>18.278486</v>
+        <v>18.278486000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.203000</v>
+        <v>994.20299999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.027000</v>
+        <v>-124.027</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>65813.282694</v>
+        <v>65813.282693999994</v>
       </c>
       <c r="AZ15" s="1">
-        <v>18.281467</v>
+        <v>18.281466999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.757000</v>
+        <v>-142.75700000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>65823.444520</v>
+        <v>65823.444520000005</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.284290</v>
+        <v>18.284289999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.537000</v>
+        <v>-227.53700000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>65833.944830</v>
+        <v>65833.944829999993</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.287207</v>
+        <v>18.287206999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1129.640000</v>
+        <v>1129.6400000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-362.916000</v>
+        <v>-362.916</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>65844.700565</v>
+        <v>65844.700565000006</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.290195</v>
+        <v>18.290195000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1262.220000</v>
+        <v>1262.22</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-570.531000</v>
+        <v>-570.53099999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>65855.643770</v>
+        <v>65855.643769999995</v>
       </c>
       <c r="BT15" s="1">
-        <v>18.293234</v>
+        <v>18.293234000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1409.930000</v>
+        <v>1409.93</v>
       </c>
       <c r="BV15" s="1">
-        <v>-790.770000</v>
+        <v>-790.77</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>65866.867242</v>
+        <v>65866.867241999993</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.296352</v>
+        <v>18.296351999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1571.550000</v>
+        <v>1571.55</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1020.420000</v>
+        <v>-1020.42</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>65879.121899</v>
+        <v>65879.121899000005</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.299756</v>
+        <v>18.299755999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1976.610000</v>
+        <v>1976.61</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1554.710000</v>
+        <v>-1554.71</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>65708.780842</v>
+        <v>65708.780841999993</v>
       </c>
       <c r="B16" s="1">
-        <v>18.252439</v>
+        <v>18.252438999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>899.478000</v>
+        <v>899.47799999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.844000</v>
+        <v>-196.84399999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>65719.476077</v>
+        <v>65719.476076999999</v>
       </c>
       <c r="G16" s="1">
-        <v>18.255410</v>
+        <v>18.255410000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>916.513000</v>
+        <v>916.51300000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.054000</v>
+        <v>-167.054</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>65729.707551</v>
       </c>
       <c r="L16" s="1">
-        <v>18.258252</v>
+        <v>18.258251999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>939.846000</v>
+        <v>939.846</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.933000</v>
+        <v>-119.93300000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>65740.129521</v>
+        <v>65740.129520999995</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.261147</v>
+        <v>18.261147000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>946.703000</v>
+        <v>946.70299999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.631000</v>
+        <v>-104.631</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>65750.622853</v>
+        <v>65750.622852999993</v>
       </c>
       <c r="V16" s="1">
-        <v>18.264062</v>
+        <v>18.264061999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>953.500000</v>
+        <v>953.5</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.750500</v>
+        <v>-90.750500000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>65761.147992</v>
+        <v>65761.147991999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>18.266986</v>
+        <v>18.266985999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.785000</v>
+        <v>960.78499999999997</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.878900</v>
+        <v>-80.878900000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>65771.349699</v>
+        <v>65771.349698999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.269819</v>
+        <v>18.269818999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.806000</v>
+        <v>965.80600000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.152900</v>
+        <v>-80.152900000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>65781.602102</v>
+        <v>65781.602102000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.272667</v>
+        <v>18.272666999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>973.722000</v>
+        <v>973.72199999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.738500</v>
+        <v>-87.738500000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>65792.110716</v>
+        <v>65792.110715999996</v>
       </c>
       <c r="AP16" s="1">
-        <v>18.275586</v>
+        <v>18.275586000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>982.846000</v>
+        <v>982.846</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.535000</v>
+        <v>-102.535</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>65802.860014</v>
+        <v>65802.860014000005</v>
       </c>
       <c r="AU16" s="1">
         <v>18.278572</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.204000</v>
+        <v>994.20399999999995</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.017000</v>
+        <v>-124.017</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>65813.595957</v>
+        <v>65813.595956999998</v>
       </c>
       <c r="AZ16" s="1">
         <v>18.281554</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.742000</v>
+        <v>-142.74199999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>65823.805076</v>
+        <v>65823.805076000004</v>
       </c>
       <c r="BE16" s="1">
-        <v>18.284390</v>
+        <v>18.284389999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.310000</v>
+        <v>1049.31</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.550000</v>
+        <v>-227.55</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>65834.319797</v>
+        <v>65834.319797000004</v>
       </c>
       <c r="BJ16" s="1">
-        <v>18.287311</v>
+        <v>18.287310999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-362.907000</v>
+        <v>-362.90699999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>65845.097335</v>
+        <v>65845.097334999999</v>
       </c>
       <c r="BO16" s="1">
         <v>18.290305</v>
       </c>
       <c r="BP16" s="1">
-        <v>1262.230000</v>
+        <v>1262.23</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-570.556000</v>
+        <v>-570.55600000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>65856.078937</v>
+        <v>65856.078936999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.293355</v>
+        <v>18.293354999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1409.840000</v>
+        <v>1409.84</v>
       </c>
       <c r="BV16" s="1">
-        <v>-790.782000</v>
+        <v>-790.78200000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>65867.295291</v>
+        <v>65867.295291000002</v>
       </c>
       <c r="BY16" s="1">
         <v>18.296471</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1571.450000</v>
+        <v>1571.45</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1020.420000</v>
+        <v>-1020.42</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>65879.675471</v>
+        <v>65879.675470999995</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.299910</v>
+        <v>18.299910000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1976.410000</v>
+        <v>1976.41</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1555.590000</v>
+        <v>-1555.59</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>65709.424650</v>
+        <v>65709.424650000001</v>
       </c>
       <c r="B17" s="1">
-        <v>18.252618</v>
+        <v>18.252617999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>899.533000</v>
+        <v>899.53300000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.545000</v>
+        <v>-196.54499999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>65719.854558</v>
+        <v>65719.854558000006</v>
       </c>
       <c r="G17" s="1">
-        <v>18.255515</v>
+        <v>18.255514999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>916.879000</v>
+        <v>916.87900000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.164000</v>
+        <v>-167.16399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>65729.961039</v>
+        <v>65729.961039000002</v>
       </c>
       <c r="L17" s="1">
-        <v>18.258323</v>
+        <v>18.258323000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>939.998000</v>
+        <v>939.99800000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.889000</v>
+        <v>-119.889</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>65740.477185</v>
+        <v>65740.477184999996</v>
       </c>
       <c r="Q17" s="1">
-        <v>18.261244</v>
+        <v>18.261244000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>946.709000</v>
+        <v>946.70899999999995</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.584000</v>
+        <v>-104.584</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>65750.973059</v>
+        <v>65750.973058999996</v>
       </c>
       <c r="V17" s="1">
-        <v>18.264159</v>
+        <v>18.264158999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>953.418000</v>
+        <v>953.41800000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.654400</v>
+        <v>-90.654399999999995</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>65761.496645</v>
+        <v>65761.496645000007</v>
       </c>
       <c r="AA17" s="1">
-        <v>18.267082</v>
+        <v>18.267081999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.767000</v>
+        <v>960.76700000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.896100</v>
+        <v>-80.896100000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>65771.765357</v>
+        <v>65771.765356999997</v>
       </c>
       <c r="AF17" s="1">
         <v>18.269935</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.820000</v>
+        <v>965.82</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.185400</v>
+        <v>-80.185400000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>65781.878778</v>
+        <v>65781.878777999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.272744</v>
+        <v>18.272743999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>973.707000</v>
+        <v>973.70699999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.736100</v>
+        <v>-87.736099999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>65792.398396</v>
+        <v>65792.398396000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>18.275666</v>
+        <v>18.275666000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>982.865000</v>
+        <v>982.86500000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.563000</v>
+        <v>-102.563</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>65803.225070</v>
+        <v>65803.22507</v>
       </c>
       <c r="AU17" s="1">
-        <v>18.278674</v>
+        <v>18.278673999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.188000</v>
+        <v>994.18799999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.010000</v>
+        <v>-124.01</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>65813.939650</v>
+        <v>65813.93965</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.281650</v>
+        <v>18.281649999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.810000</v>
+        <v>1003.81</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.741000</v>
+        <v>-142.74100000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>65824.165184</v>
+        <v>65824.165183999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.284490</v>
+        <v>18.284490000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.310000</v>
+        <v>1049.31</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.521000</v>
+        <v>-227.52099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>65835.070708</v>
+        <v>65835.070707999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>18.287520</v>
+        <v>18.287520000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL17" s="1">
-        <v>-362.947000</v>
+        <v>-362.947</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>65845.530838</v>
+        <v>65845.530838000006</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.290425</v>
+        <v>18.290424999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1262.230000</v>
+        <v>1262.23</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-570.596000</v>
+        <v>-570.596</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>65856.481017</v>
+        <v>65856.481016999998</v>
       </c>
       <c r="BT17" s="1">
         <v>18.293467</v>
       </c>
       <c r="BU17" s="1">
-        <v>1409.920000</v>
+        <v>1409.92</v>
       </c>
       <c r="BV17" s="1">
-        <v>-790.780000</v>
+        <v>-790.78</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>65867.711097</v>
+        <v>65867.711097000007</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.296586</v>
+        <v>18.296586000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1571.630000</v>
+        <v>1571.63</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1020.240000</v>
+        <v>-1020.24</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>65880.203674</v>
+        <v>65880.203674000004</v>
       </c>
       <c r="CD17" s="1">
-        <v>18.300057</v>
+        <v>18.300056999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1975.890000</v>
+        <v>1975.89</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1554.070000</v>
+        <v>-1554.07</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>65709.803595</v>
+        <v>65709.803595000005</v>
       </c>
       <c r="B18" s="1">
         <v>18.252723</v>
       </c>
       <c r="C18" s="1">
-        <v>899.477000</v>
+        <v>899.47699999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.867000</v>
+        <v>-196.86699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>65720.201228</v>
+        <v>65720.201228000005</v>
       </c>
       <c r="G18" s="1">
-        <v>18.255611</v>
+        <v>18.255610999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>916.677000</v>
+        <v>916.67700000000002</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.320000</v>
+        <v>-167.32</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>65730.310687</v>
+        <v>65730.310687000005</v>
       </c>
       <c r="L18" s="1">
-        <v>18.258420</v>
+        <v>18.258420000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>939.970000</v>
+        <v>939.97</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.950000</v>
+        <v>-119.95</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>65740.828384</v>
+        <v>65740.828383999993</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.261341</v>
+        <v>18.261341000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>946.740000</v>
+        <v>946.74</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.601000</v>
+        <v>-104.601</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>65751.398098</v>
+        <v>65751.398098000005</v>
       </c>
       <c r="V18" s="1">
         <v>18.264277</v>
       </c>
       <c r="W18" s="1">
-        <v>953.485000</v>
+        <v>953.48500000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.718200</v>
+        <v>-90.718199999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>65761.926181</v>
+        <v>65761.926181000003</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.267202</v>
+        <v>18.267202000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.735000</v>
+        <v>960.73500000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.783200</v>
+        <v>-80.783199999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>65772.058456</v>
+        <v>65772.058455999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.270016</v>
+        <v>18.270015999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.788000</v>
+        <v>965.78800000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.220000</v>
+        <v>-80.22</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>65782.225450</v>
+        <v>65782.225449999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.272840</v>
+        <v>18.272839999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>973.750000</v>
+        <v>973.75</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.738700</v>
+        <v>-87.738699999999994</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>65792.759020</v>
+        <v>65792.759019999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.275766</v>
+        <v>18.275766000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>982.848000</v>
+        <v>982.84799999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.550000</v>
+        <v>-102.55</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>65803.587149</v>
+        <v>65803.587148999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.278774</v>
+        <v>18.278773999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.214000</v>
+        <v>994.21400000000006</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.011000</v>
+        <v>-124.011</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>65814.380591</v>
+        <v>65814.380590999994</v>
       </c>
       <c r="AZ18" s="1">
         <v>18.281772</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.754000</v>
+        <v>-142.75399999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>65824.889329</v>
+        <v>65824.889328999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.284691</v>
+        <v>18.284690999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.536000</v>
+        <v>-227.536</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>65835.445188</v>
+        <v>65835.445187999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.287624</v>
+        <v>18.287624000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-362.930000</v>
+        <v>-362.93</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>65845.918251</v>
+        <v>65845.918250999996</v>
       </c>
       <c r="BO18" s="1">
         <v>18.290533</v>
       </c>
       <c r="BP18" s="1">
-        <v>1262.270000</v>
+        <v>1262.27</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-570.540000</v>
+        <v>-570.54</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>65856.911543</v>
+        <v>65856.911542999995</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.293587</v>
+        <v>18.293586999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1409.780000</v>
+        <v>1409.78</v>
       </c>
       <c r="BV18" s="1">
-        <v>-790.775000</v>
+        <v>-790.77499999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>65868.476761</v>
+        <v>65868.476760999998</v>
       </c>
       <c r="BY18" s="1">
         <v>18.296799</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1571.480000</v>
+        <v>1571.48</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1020.340000</v>
+        <v>-1020.34</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>65881.037448</v>
+        <v>65881.037448000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.300288</v>
+        <v>18.300287999999998</v>
       </c>
       <c r="CE18" s="1">
-        <v>1974.750000</v>
+        <v>1974.75</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1555.130000</v>
+        <v>-1555.13</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>65710.147819</v>
+        <v>65710.147819000005</v>
       </c>
       <c r="B19" s="1">
-        <v>18.252819</v>
+        <v>18.252818999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>899.333000</v>
+        <v>899.33299999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.964000</v>
+        <v>-196.964</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>65720.547931</v>
+        <v>65720.547930999994</v>
       </c>
       <c r="G19" s="1">
-        <v>18.255708</v>
+        <v>18.255707999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>916.945000</v>
+        <v>916.94500000000005</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.246000</v>
+        <v>-167.24600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>65730.744687</v>
+        <v>65730.744686999999</v>
       </c>
       <c r="L19" s="1">
-        <v>18.258540</v>
+        <v>18.25854</v>
       </c>
       <c r="M19" s="1">
-        <v>939.872000</v>
+        <v>939.87199999999996</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.058000</v>
+        <v>-120.05800000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>65741.248992</v>
+        <v>65741.248991999993</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.261458</v>
+        <v>18.261458000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>946.778000</v>
+        <v>946.77800000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.584000</v>
+        <v>-104.584</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>65751.679362</v>
+        <v>65751.679361999995</v>
       </c>
       <c r="V19" s="1">
-        <v>18.264355</v>
+        <v>18.264354999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>953.268000</v>
+        <v>953.26800000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.603900</v>
+        <v>-90.603899999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>65762.207945</v>
+        <v>65762.207945000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>18.267280</v>
+        <v>18.26728</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.863000</v>
+        <v>960.86300000000006</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.853400</v>
+        <v>-80.853399999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>65772.402842</v>
+        <v>65772.402841999996</v>
       </c>
       <c r="AF19" s="1">
-        <v>18.270112</v>
+        <v>18.270112000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.821000</v>
+        <v>965.82100000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.203400</v>
+        <v>-80.203400000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>65782.576649</v>
+        <v>65782.576648999995</v>
       </c>
       <c r="AK19" s="1">
         <v>18.272938</v>
       </c>
       <c r="AL19" s="1">
-        <v>973.697000</v>
+        <v>973.697</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.750900</v>
+        <v>-87.750900000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>65793.118587</v>
+        <v>65793.118587000004</v>
       </c>
       <c r="AP19" s="1">
-        <v>18.275866</v>
+        <v>18.275866000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>982.873000</v>
+        <v>982.87300000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.540000</v>
+        <v>-102.54</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>65804.326684</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.278980</v>
+        <v>18.278980000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.222000</v>
+        <v>994.22199999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.998000</v>
+        <v>-123.998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>65814.655871</v>
+        <v>65814.655870999995</v>
       </c>
       <c r="AZ19" s="1">
-        <v>18.281849</v>
+        <v>18.281849000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.820000</v>
+        <v>1003.82</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.749000</v>
+        <v>-142.749</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>65825.251441</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.284792</v>
+        <v>18.284791999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.544000</v>
+        <v>-227.54400000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>65835.820691</v>
+        <v>65835.820691000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.287728</v>
+        <v>18.287728000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-362.906000</v>
+        <v>-362.90600000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>65846.335877</v>
+        <v>65846.335877000005</v>
       </c>
       <c r="BO19" s="1">
-        <v>18.290649</v>
+        <v>18.290648999999998</v>
       </c>
       <c r="BP19" s="1">
-        <v>1262.220000</v>
+        <v>1262.22</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-570.543000</v>
+        <v>-570.54300000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>65857.654086</v>
+        <v>65857.654085999995</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.293793</v>
+        <v>18.293793000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1409.910000</v>
+        <v>1409.91</v>
       </c>
       <c r="BV19" s="1">
-        <v>-790.832000</v>
+        <v>-790.83199999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>65868.615640</v>
+        <v>65868.615640000004</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.296838</v>
+        <v>18.296838000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1571.600000</v>
+        <v>1571.6</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1020.430000</v>
+        <v>-1020.43</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>65881.239846</v>
+        <v>65881.239845999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>18.300344</v>
+        <v>18.300343999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1975.570000</v>
+        <v>1975.57</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1556.320000</v>
+        <v>-1556.32</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>65710.491049</v>
+        <v>65710.491049000004</v>
       </c>
       <c r="B20" s="1">
-        <v>18.252914</v>
+        <v>18.252914000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>899.455000</v>
+        <v>899.45500000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.694000</v>
+        <v>-196.69399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>65720.969531</v>
+        <v>65720.969530999995</v>
       </c>
       <c r="G20" s="1">
-        <v>18.255825</v>
+        <v>18.255825000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>917.128000</v>
+        <v>917.12800000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.353000</v>
+        <v>-167.35300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>65731.003133</v>
+        <v>65731.003133000006</v>
       </c>
       <c r="L20" s="1">
-        <v>18.258612</v>
+        <v>18.258611999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>939.803000</v>
+        <v>939.803</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.022000</v>
+        <v>-120.02200000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>65741.536640</v>
+        <v>65741.536640000006</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.261538</v>
+        <v>18.261538000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>946.757000</v>
+        <v>946.75699999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.632000</v>
+        <v>-104.63200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>65752.009667</v>
+        <v>65752.009667000006</v>
       </c>
       <c r="V20" s="1">
-        <v>18.264447</v>
+        <v>18.264447000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>953.500000</v>
+        <v>953.5</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.668300</v>
+        <v>-90.668300000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>65762.554622</v>
+        <v>65762.554621999996</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.267376</v>
+        <v>18.267375999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.730000</v>
+        <v>960.73</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.822100</v>
+        <v>-80.822100000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>65772.746407</v>
+        <v>65772.746406999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.270207</v>
+        <v>18.270206999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.853000</v>
+        <v>965.85299999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.214200</v>
+        <v>-80.214200000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>65783.272539</v>
+        <v>65783.272538999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.273131</v>
+        <v>18.273130999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>973.719000</v>
+        <v>973.71900000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.760400</v>
+        <v>-87.760400000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>65793.841259</v>
+        <v>65793.841258999993</v>
       </c>
       <c r="AP20" s="1">
-        <v>18.276067</v>
+        <v>18.276067000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>982.865000</v>
+        <v>982.86500000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.535000</v>
+        <v>-102.535</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>65804.707613</v>
+        <v>65804.707613000006</v>
       </c>
       <c r="AU20" s="1">
-        <v>18.279085</v>
+        <v>18.279084999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.226000</v>
+        <v>994.226</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.029000</v>
+        <v>-124.029</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>65815.014976</v>
+        <v>65815.014976000006</v>
       </c>
       <c r="AZ20" s="1">
-        <v>18.281949</v>
+        <v>18.281949000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.740000</v>
+        <v>-142.74</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>65825.612994</v>
+        <v>65825.612993999996</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.284892</v>
+        <v>18.284891999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.310000</v>
+        <v>1049.31</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.542000</v>
+        <v>-227.542</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>65836.533410</v>
+        <v>65836.533410000004</v>
       </c>
       <c r="BJ20" s="1">
-        <v>18.287926</v>
+        <v>18.287925999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1129.590000</v>
+        <v>1129.5899999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-362.948000</v>
+        <v>-362.94799999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>65847.048100</v>
+        <v>65847.0481</v>
       </c>
       <c r="BO20" s="1">
-        <v>18.290847</v>
+        <v>18.290846999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1262.210000</v>
+        <v>1262.21</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-570.563000</v>
+        <v>-570.56299999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>65857.784006</v>
+        <v>65857.784006000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>18.293829</v>
+        <v>18.293828999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1409.800000</v>
+        <v>1409.8</v>
       </c>
       <c r="BV20" s="1">
-        <v>-790.795000</v>
+        <v>-790.79499999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>65869.032809</v>
+        <v>65869.032808999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.296954</v>
+        <v>18.296953999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1571.550000</v>
+        <v>1571.55</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1020.270000</v>
+        <v>-1020.27</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>65881.814678</v>
+        <v>65881.814677999995</v>
       </c>
       <c r="CD20" s="1">
         <v>18.300504</v>
       </c>
       <c r="CE20" s="1">
-        <v>1975.130000</v>
+        <v>1975.13</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1556.290000</v>
+        <v>-1556.29</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>65710.926568</v>
+        <v>65710.926567999995</v>
       </c>
       <c r="B21" s="1">
-        <v>18.253035</v>
+        <v>18.253035000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>899.388000</v>
+        <v>899.38800000000003</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.802000</v>
+        <v>-196.80199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>65721.263194</v>
+        <v>65721.263193999999</v>
       </c>
       <c r="G21" s="1">
         <v>18.255906</v>
       </c>
       <c r="H21" s="1">
-        <v>916.358000</v>
+        <v>916.35799999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.369000</v>
+        <v>-167.369</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>65731.347822</v>
+        <v>65731.347821999996</v>
       </c>
       <c r="L21" s="1">
-        <v>18.258708</v>
+        <v>18.258707999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>939.893000</v>
+        <v>939.89300000000003</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.101000</v>
+        <v>-120.101</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>65741.884864</v>
+        <v>65741.884864000007</v>
       </c>
       <c r="Q21" s="1">
-        <v>18.261635</v>
+        <v>18.261634999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>946.758000</v>
+        <v>946.75800000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.625000</v>
+        <v>-104.625</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>65752.361329</v>
+        <v>65752.361329000007</v>
       </c>
       <c r="V21" s="1">
-        <v>18.264545</v>
+        <v>18.264544999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>953.426000</v>
+        <v>953.42600000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.647000</v>
+        <v>-90.647000000000006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>65763.212307</v>
+        <v>65763.212306999994</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.267559</v>
+        <v>18.267558999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.778000</v>
+        <v>960.77800000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.809600</v>
+        <v>-80.809600000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>65773.434390</v>
+        <v>65773.434389999995</v>
       </c>
       <c r="AF21" s="1">
         <v>18.270398</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.783000</v>
+        <v>965.78300000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.231900</v>
+        <v>-80.231899999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>65783.622185</v>
@@ -5469,285 +5885,285 @@
         <v>18.273228</v>
       </c>
       <c r="AL21" s="1">
-        <v>973.705000</v>
+        <v>973.70500000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.738600</v>
+        <v>-87.738600000000005</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>65794.201057</v>
+        <v>65794.201056999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.276167</v>
+        <v>18.276167000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>982.873000</v>
+        <v>982.87300000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.548000</v>
+        <v>-102.548</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>65805.070683</v>
+        <v>65805.070682999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.279186</v>
+        <v>18.279185999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.215000</v>
+        <v>994.21500000000003</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.014000</v>
+        <v>-124.014</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>65815.684079</v>
+        <v>65815.684078999999</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.282134</v>
+        <v>18.282133999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.725000</v>
+        <v>-142.72499999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>65826.278160</v>
+        <v>65826.278160000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.285077</v>
+        <v>18.285077000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.531000</v>
+        <v>-227.53100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>65836.970385</v>
+        <v>65836.970384999993</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.288047</v>
+        <v>18.288046999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1129.600000</v>
+        <v>1129.5999999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-362.949000</v>
+        <v>-362.94900000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>65847.172596</v>
+        <v>65847.172596000004</v>
       </c>
       <c r="BO21" s="1">
-        <v>18.290881</v>
+        <v>18.290880999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1262.230000</v>
+        <v>1262.23</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-570.545000</v>
+        <v>-570.54499999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>65858.195220</v>
+        <v>65858.195219999994</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.293943</v>
+        <v>18.293942999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1409.800000</v>
+        <v>1409.8</v>
       </c>
       <c r="BV21" s="1">
-        <v>-790.845000</v>
+        <v>-790.84500000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>65869.457880</v>
+        <v>65869.457880000002</v>
       </c>
       <c r="BY21" s="1">
         <v>18.297072</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1571.490000</v>
+        <v>1571.49</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1020.280000</v>
+        <v>-1020.28</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>65882.414343</v>
+        <v>65882.414342999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.300671</v>
+        <v>18.300671000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1974.760000</v>
+        <v>1974.76</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1555.310000</v>
+        <v>-1555.31</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>65711.191896</v>
+        <v>65711.191896000004</v>
       </c>
       <c r="B22" s="1">
-        <v>18.253109</v>
+        <v>18.253108999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>899.340000</v>
+        <v>899.34</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.618000</v>
+        <v>-196.61799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>65721.605930</v>
+        <v>65721.605930000005</v>
       </c>
       <c r="G22" s="1">
-        <v>18.256002</v>
+        <v>18.256001999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>916.805000</v>
+        <v>916.80499999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.229000</v>
+        <v>-167.22900000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>65731.693532</v>
+        <v>65731.693532000005</v>
       </c>
       <c r="L22" s="1">
-        <v>18.258804</v>
+        <v>18.258804000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>939.891000</v>
+        <v>939.89099999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.090000</v>
+        <v>-120.09</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>65742.236030</v>
+        <v>65742.23603</v>
       </c>
       <c r="Q22" s="1">
-        <v>18.261732</v>
+        <v>18.261731999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>946.736000</v>
+        <v>946.73599999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.613000</v>
+        <v>-104.613</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>65753.048786</v>
+        <v>65753.048785999999</v>
       </c>
       <c r="V22" s="1">
-        <v>18.264736</v>
+        <v>18.264735999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>953.307000</v>
+        <v>953.30700000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.748000</v>
+        <v>-90.748000000000005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>65763.599683</v>
+        <v>65763.599682999993</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.267667</v>
+        <v>18.267666999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.788000</v>
+        <v>960.78800000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.817200</v>
+        <v>-80.8172</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>65773.777094</v>
+        <v>65773.777094000005</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.270494</v>
+        <v>18.270493999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.811000</v>
+        <v>965.81100000000004</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.220400</v>
+        <v>-80.220399999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>65783.973351</v>
+        <v>65783.973350999993</v>
       </c>
       <c r="AK22" s="1">
-        <v>18.273326</v>
+        <v>18.273326000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>973.755000</v>
+        <v>973.755</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.751700</v>
+        <v>-87.7517</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>65794.561947</v>
+        <v>65794.561946999995</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.276267</v>
+        <v>18.276267000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>982.846000</v>
+        <v>982.846</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.537000</v>
+        <v>-102.53700000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>65805.741316</v>
@@ -5756,121 +6172,121 @@
         <v>18.279373</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.204000</v>
+        <v>994.20399999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.032000</v>
+        <v>-124.032</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>65816.123533</v>
+        <v>65816.123533000005</v>
       </c>
       <c r="AZ22" s="1">
-        <v>18.282257</v>
+        <v>18.282257000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.739000</v>
+        <v>-142.739</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>65826.725520</v>
+        <v>65826.725520000007</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.285202</v>
+        <v>18.285202000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.539000</v>
+        <v>-227.53899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>65837.375618</v>
+        <v>65837.375618000005</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.288160</v>
+        <v>18.288160000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-362.918000</v>
+        <v>-362.91800000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>65847.583283</v>
       </c>
       <c r="BO22" s="1">
-        <v>18.290995</v>
+        <v>18.290994999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1262.250000</v>
+        <v>1262.25</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-570.572000</v>
+        <v>-570.572</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>65858.626740</v>
+        <v>65858.626740000007</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.294063</v>
+        <v>18.294063000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1409.860000</v>
+        <v>1409.86</v>
       </c>
       <c r="BV22" s="1">
-        <v>-790.863000</v>
+        <v>-790.86300000000006</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>65869.893342</v>
+        <v>65869.893341999996</v>
       </c>
       <c r="BY22" s="1">
         <v>18.297193</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1571.510000</v>
+        <v>1571.51</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1020.330000</v>
+        <v>-1020.33</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>65882.836437</v>
+        <v>65882.836437000005</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.300788</v>
+        <v>18.300788000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1976.110000</v>
+        <v>1976.11</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1556.030000</v>
+        <v>-1556.03</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>65711.532647</v>
       </c>
@@ -5878,1026 +6294,1027 @@
         <v>18.253204</v>
       </c>
       <c r="C23" s="1">
-        <v>899.438000</v>
+        <v>899.43799999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.835000</v>
+        <v>-196.83500000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>65721.952140</v>
+        <v>65721.952139999994</v>
       </c>
       <c r="G23" s="1">
-        <v>18.256098</v>
+        <v>18.256098000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>916.756000</v>
+        <v>916.75599999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.345000</v>
+        <v>-167.345</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>65732.383501</v>
+        <v>65732.383501000004</v>
       </c>
       <c r="L23" s="1">
-        <v>18.258995</v>
+        <v>18.258994999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>939.947000</v>
+        <v>939.947</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.091000</v>
+        <v>-120.09099999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>65742.929902</v>
+        <v>65742.929902000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>18.261925</v>
+        <v>18.261925000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>946.714000</v>
+        <v>946.71400000000006</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.596000</v>
+        <v>-104.596</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>65753.393504</v>
+        <v>65753.393504000007</v>
       </c>
       <c r="V23" s="1">
-        <v>18.264832</v>
+        <v>18.264831999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>953.460000</v>
+        <v>953.46</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.699800</v>
+        <v>-90.699799999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>65763.944900</v>
+        <v>65763.944900000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.267762</v>
+        <v>18.267762000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.757000</v>
+        <v>960.75699999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.758900</v>
+        <v>-80.758899999999997</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>65774.122310</v>
+        <v>65774.122310000006</v>
       </c>
       <c r="AF23" s="1">
-        <v>18.270590</v>
+        <v>18.270589999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.818000</v>
+        <v>965.81799999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.182600</v>
+        <v>-80.182599999999994</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>65784.628072</v>
+        <v>65784.628072000007</v>
       </c>
       <c r="AK23" s="1">
         <v>18.273508</v>
       </c>
       <c r="AL23" s="1">
-        <v>973.749000</v>
+        <v>973.74900000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.741200</v>
+        <v>-87.741200000000006</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>65795.237002</v>
+        <v>65795.237001999994</v>
       </c>
       <c r="AP23" s="1">
-        <v>18.276455</v>
+        <v>18.276454999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>982.855000</v>
+        <v>982.85500000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.532000</v>
+        <v>-102.532</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>65806.201599</v>
+        <v>65806.201599000007</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.279500</v>
+        <v>18.279499999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.217000</v>
+        <v>994.21699999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.994000</v>
+        <v>-123.994</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>65816.481185</v>
+        <v>65816.481184999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>18.282356</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.738000</v>
+        <v>-142.738</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>65827.087102</v>
+        <v>65827.087102000005</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.285302</v>
+        <v>18.285302000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.300000</v>
+        <v>1049.3</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.551000</v>
+        <v>-227.55099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>65837.751088</v>
+        <v>65837.751088000005</v>
       </c>
       <c r="BJ23" s="1">
-        <v>18.288264</v>
+        <v>18.288264000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1129.610000</v>
+        <v>1129.6099999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-362.937000</v>
+        <v>-362.93700000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>65847.978101</v>
+        <v>65847.978101000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.291105</v>
+        <v>18.291105000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1262.210000</v>
+        <v>1262.21</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-570.559000</v>
+        <v>-570.55899999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>65859.048805</v>
+        <v>65859.048804999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.294180</v>
+        <v>18.294180000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1409.820000</v>
+        <v>1409.82</v>
       </c>
       <c r="BV23" s="1">
-        <v>-790.918000</v>
+        <v>-790.91800000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>65870.329319</v>
+        <v>65870.329318999997</v>
       </c>
       <c r="BY23" s="1">
         <v>18.297314</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1571.520000</v>
+        <v>1571.52</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1020.370000</v>
+        <v>-1020.37</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>65883.356775</v>
+        <v>65883.356774999993</v>
       </c>
       <c r="CD23" s="1">
         <v>18.300932</v>
       </c>
       <c r="CE23" s="1">
-        <v>1976.610000</v>
+        <v>1976.61</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1554.400000</v>
+        <v>-1554.4</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>65711.873896</v>
+        <v>65711.873896000005</v>
       </c>
       <c r="B24" s="1">
-        <v>18.253298</v>
+        <v>18.253298000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>899.471000</v>
+        <v>899.471</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.810000</v>
+        <v>-196.81</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>65722.641052</v>
+        <v>65722.641052000006</v>
       </c>
       <c r="G24" s="1">
-        <v>18.256289</v>
+        <v>18.256288999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>916.915000</v>
+        <v>916.91499999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.495000</v>
+        <v>-167.495</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>65732.731659</v>
+        <v>65732.731658999997</v>
       </c>
       <c r="L24" s="1">
-        <v>18.259092</v>
+        <v>18.259091999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>939.926000</v>
+        <v>939.92600000000004</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.991000</v>
+        <v>-119.991</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>65743.280574</v>
+        <v>65743.280574000004</v>
       </c>
       <c r="Q24" s="1">
-        <v>18.262022</v>
+        <v>18.262022000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>946.764000</v>
+        <v>946.76400000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.579000</v>
+        <v>-104.57899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>65753.738757</v>
+        <v>65753.738756999999</v>
       </c>
       <c r="V24" s="1">
         <v>18.264927</v>
       </c>
       <c r="W24" s="1">
-        <v>953.520000</v>
+        <v>953.52</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.628700</v>
+        <v>-90.628699999999995</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>65764.600641</v>
+        <v>65764.600640999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.267945</v>
+        <v>18.267945000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.802000</v>
+        <v>960.80200000000002</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.823400</v>
+        <v>-80.823400000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>65774.773588</v>
+        <v>65774.773587999996</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.270770</v>
+        <v>18.270769999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.804000</v>
+        <v>965.80399999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.142400</v>
+        <v>-80.142399999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>65785.016439</v>
+        <v>65785.016438999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>18.273616</v>
+        <v>18.273616000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>973.705000</v>
+        <v>973.70500000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.744400</v>
+        <v>-87.744399999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>65795.671992</v>
+        <v>65795.671992000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>18.276576</v>
+        <v>18.276575999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>982.871000</v>
+        <v>982.87099999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.549000</v>
+        <v>-102.54900000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>65806.566492</v>
+        <v>65806.566491999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>18.279602</v>
+        <v>18.279602000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.209000</v>
+        <v>994.20899999999995</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.001000</v>
+        <v>-124.001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>65816.842237</v>
+        <v>65816.842237000004</v>
       </c>
       <c r="AZ24" s="1">
         <v>18.282456</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.840000</v>
+        <v>1003.84</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.735000</v>
+        <v>-142.73500000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>65827.446702</v>
+        <v>65827.446702000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.285402</v>
+        <v>18.285402000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.330000</v>
+        <v>1049.33</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.547000</v>
+        <v>-227.547</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>65838.171732</v>
+        <v>65838.171732000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.288381</v>
+        <v>18.288381000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1129.620000</v>
+        <v>1129.6199999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-362.936000</v>
+        <v>-362.93599999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>65848.793527</v>
+        <v>65848.793527000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.291332</v>
+        <v>18.291332000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1262.230000</v>
+        <v>1262.23</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-570.547000</v>
+        <v>-570.54700000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>65859.456021</v>
+        <v>65859.456021000005</v>
       </c>
       <c r="BT24" s="1">
         <v>18.294293</v>
       </c>
       <c r="BU24" s="1">
-        <v>1409.790000</v>
+        <v>1409.79</v>
       </c>
       <c r="BV24" s="1">
-        <v>-790.960000</v>
+        <v>-790.96</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>65870.748469</v>
+        <v>65870.748468999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>18.297430</v>
+        <v>18.297429999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1571.460000</v>
+        <v>1571.46</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1020.280000</v>
+        <v>-1020.28</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>65883.873107</v>
+        <v>65883.873107000007</v>
       </c>
       <c r="CD24" s="1">
-        <v>18.301076</v>
+        <v>18.301075999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1975.050000</v>
+        <v>1975.05</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1554.100000</v>
+        <v>-1554.1</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>65712.566837</v>
+        <v>65712.566837000006</v>
       </c>
       <c r="B25" s="1">
         <v>18.253491</v>
       </c>
       <c r="C25" s="1">
-        <v>899.395000</v>
+        <v>899.39499999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.771000</v>
+        <v>-196.77099999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>65722.986760</v>
+        <v>65722.98676</v>
       </c>
       <c r="G25" s="1">
-        <v>18.256385</v>
+        <v>18.256385000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>916.935000</v>
+        <v>916.93499999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.108000</v>
+        <v>-167.108</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>65733.077899</v>
+        <v>65733.077898999996</v>
       </c>
       <c r="L25" s="1">
-        <v>18.259188</v>
+        <v>18.259188000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>940.035000</v>
+        <v>940.03499999999997</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.074000</v>
+        <v>-120.074</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>65743.629293</v>
+        <v>65743.629293000005</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.262119</v>
+        <v>18.262118999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>946.774000</v>
+        <v>946.774</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.625000</v>
+        <v>-104.625</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>65754.402894</v>
+        <v>65754.402893999999</v>
       </c>
       <c r="V25" s="1">
-        <v>18.265112</v>
+        <v>18.265111999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>953.325000</v>
+        <v>953.32500000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.613600</v>
+        <v>-90.613600000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>65764.992448</v>
+        <v>65764.992448000005</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.268053</v>
+        <v>18.268052999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.815000</v>
+        <v>960.81500000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.818100</v>
+        <v>-80.818100000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>65775.150516</v>
+        <v>65775.150515999994</v>
       </c>
       <c r="AF25" s="1">
         <v>18.270875</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.860000</v>
+        <v>965.86</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.163900</v>
+        <v>-80.163899999999998</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>65785.365623</v>
+        <v>65785.365623000005</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.273713</v>
+        <v>18.273713000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>973.707000</v>
+        <v>973.70699999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.748500</v>
+        <v>-87.748500000000007</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>65796.031592</v>
+        <v>65796.031591999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.276675</v>
+        <v>18.276675000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>982.859000</v>
+        <v>982.85900000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.545000</v>
+        <v>-102.545</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>65806.930186</v>
+        <v>65806.930185999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>18.279703</v>
+        <v>18.279703000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.217000</v>
+        <v>994.21699999999998</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.013000</v>
+        <v>-124.01300000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>65817.268300</v>
+        <v>65817.268299999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.282575</v>
+        <v>18.282575000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.740000</v>
+        <v>-142.74</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>65827.876734</v>
+        <v>65827.876734000005</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.285521</v>
+        <v>18.285520999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.300000</v>
+        <v>1049.3</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.530000</v>
+        <v>-227.53</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>65838.522401</v>
+        <v>65838.522400999995</v>
       </c>
       <c r="BJ25" s="1">
-        <v>18.288478</v>
+        <v>18.288478000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1129.600000</v>
+        <v>1129.5999999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-362.926000</v>
+        <v>-362.92599999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>65849.193330</v>
+        <v>65849.193329999995</v>
       </c>
       <c r="BO25" s="1">
-        <v>18.291443</v>
+        <v>18.291443000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1262.190000</v>
+        <v>1262.19</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-570.565000</v>
+        <v>-570.56500000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>65859.867245</v>
+        <v>65859.867245000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.294408</v>
+        <v>18.294408000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1409.730000</v>
+        <v>1409.73</v>
       </c>
       <c r="BV25" s="1">
-        <v>-790.941000</v>
+        <v>-790.94100000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>65871.169540</v>
+        <v>65871.169540000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>18.297547</v>
+        <v>18.297547000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1571.500000</v>
+        <v>1571.5</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1020.290000</v>
+        <v>-1020.29</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>65884.393379</v>
+        <v>65884.393379000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.301220</v>
+        <v>18.301220000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>1975.150000</v>
+        <v>1975.15</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1554.220000</v>
+        <v>-1554.22</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>65712.906592</v>
+        <v>65712.906591999999</v>
       </c>
       <c r="B26" s="1">
-        <v>18.253585</v>
+        <v>18.253585000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>899.512000</v>
+        <v>899.51199999999994</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.880000</v>
+        <v>-196.88</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>65723.336440</v>
+        <v>65723.336439999999</v>
       </c>
       <c r="G26" s="1">
-        <v>18.256482</v>
+        <v>18.256481999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>916.654000</v>
+        <v>916.654</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.142000</v>
+        <v>-167.142</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>65733.730137</v>
+        <v>65733.730137000006</v>
       </c>
       <c r="L26" s="1">
         <v>18.259369</v>
       </c>
       <c r="M26" s="1">
-        <v>940.020000</v>
+        <v>940.02</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.084000</v>
+        <v>-120.084</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>65744.284476</v>
+        <v>65744.284476000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.262301</v>
+        <v>18.262301000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>946.710000</v>
+        <v>946.71</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.664000</v>
+        <v>-104.664</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>65754.771899</v>
+        <v>65754.771898999999</v>
       </c>
       <c r="V26" s="1">
         <v>18.265214</v>
       </c>
       <c r="W26" s="1">
-        <v>953.430000</v>
+        <v>953.43</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.676000</v>
+        <v>-90.676000000000002</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>65765.343156</v>
+        <v>65765.343156000003</v>
       </c>
       <c r="AA26" s="1">
         <v>18.268151</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.745000</v>
+        <v>960.745</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.838600</v>
+        <v>-80.8386</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>65775.493748</v>
+        <v>65775.493747999994</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.270970</v>
+        <v>18.270969999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.791000</v>
+        <v>965.79100000000005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.197000</v>
+        <v>-80.197000000000003</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>65785.712356</v>
+        <v>65785.712356000004</v>
       </c>
       <c r="AK26" s="1">
         <v>18.273809</v>
       </c>
       <c r="AL26" s="1">
-        <v>973.739000</v>
+        <v>973.73900000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.755400</v>
+        <v>-87.755399999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>65796.391687</v>
+        <v>65796.391686999996</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.276775</v>
+        <v>18.276775000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>982.866000</v>
+        <v>982.86599999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.538000</v>
+        <v>-102.538</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>65807.367161</v>
+        <v>65807.367161000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.279824</v>
+        <v>18.279824000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.208000</v>
+        <v>994.20799999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.024000</v>
+        <v>-124.024</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>65817.554987</v>
+        <v>65817.554986999996</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.282654</v>
+        <v>18.282654000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.830000</v>
+        <v>1003.83</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.741000</v>
+        <v>-142.74100000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>65828.172351</v>
+        <v>65828.172351000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.285603</v>
+        <v>18.285602999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.320000</v>
+        <v>1049.32</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.536000</v>
+        <v>-227.536</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>65838.898831</v>
+        <v>65838.898830999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>18.288583</v>
+        <v>18.288582999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1129.630000</v>
+        <v>1129.6300000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-362.915000</v>
+        <v>-362.91500000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>65849.606465</v>
+        <v>65849.606465000004</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.291557</v>
+        <v>18.291557000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1262.220000</v>
+        <v>1262.22</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-570.536000</v>
+        <v>-570.53599999999994</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>65860.285331</v>
+        <v>65860.285331000006</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.294524</v>
+        <v>18.294523999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1409.760000</v>
+        <v>1409.76</v>
       </c>
       <c r="BV26" s="1">
-        <v>-791.009000</v>
+        <v>-791.00900000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>65871.623875</v>
+        <v>65871.623875000005</v>
       </c>
       <c r="BY26" s="1">
         <v>18.297673</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1571.500000</v>
+        <v>1571.5</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1020.270000</v>
+        <v>-1020.27</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>65884.951876</v>
+        <v>65884.951876000006</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.301376</v>
+        <v>18.301376000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1975.700000</v>
+        <v>1975.7</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1554.300000</v>
+        <v>-1554.3</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>